--- a/PythonResources/Data/Consumption/Sympheny/post_CA_coo.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/post_CA_coo.xlsx
@@ -655,7 +655,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>233.536294796641</v>
+        <v>233.5362947966409</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -823,7 +823,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>514.415871320713</v>
+        <v>514.4158713207129</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -967,7 +967,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>511.367932518635</v>
+        <v>511.3679325186349</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -2407,7 +2407,7 @@
         <v>258</v>
       </c>
       <c r="B258">
-        <v>265.1454716714604</v>
+        <v>265.1454716714603</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -3287,7 +3287,7 @@
         <v>368</v>
       </c>
       <c r="B368">
-        <v>2.074828656017247</v>
+        <v>2.074828656017246</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -4879,7 +4879,7 @@
         <v>567</v>
       </c>
       <c r="B567">
-        <v>0.3120620419666005</v>
+        <v>0.3120620419666004</v>
       </c>
     </row>
     <row r="568" spans="1:2">
@@ -5023,7 +5023,7 @@
         <v>585</v>
       </c>
       <c r="B585">
-        <v>2.323338243250135</v>
+        <v>2.323338243250134</v>
       </c>
     </row>
     <row r="586" spans="1:2">
@@ -5047,7 +5047,7 @@
         <v>588</v>
       </c>
       <c r="B588">
-        <v>51.74432951500847</v>
+        <v>51.74432951500846</v>
       </c>
     </row>
     <row r="589" spans="1:2">
@@ -5063,7 +5063,7 @@
         <v>590</v>
       </c>
       <c r="B590">
-        <v>78.20073138808409</v>
+        <v>78.20073138808408</v>
       </c>
     </row>
     <row r="591" spans="1:2">
@@ -5071,7 +5071,7 @@
         <v>591</v>
       </c>
       <c r="B591">
-        <v>109.3735254863368</v>
+        <v>109.3735254863367</v>
       </c>
     </row>
     <row r="592" spans="1:2">
@@ -5095,7 +5095,7 @@
         <v>594</v>
       </c>
       <c r="B594">
-        <v>77.2013591462489</v>
+        <v>77.20135914624889</v>
       </c>
     </row>
     <row r="595" spans="1:2">
@@ -5199,7 +5199,7 @@
         <v>607</v>
       </c>
       <c r="B607">
-        <v>74.92683481519821</v>
+        <v>74.92683481519819</v>
       </c>
     </row>
     <row r="608" spans="1:2">
@@ -5223,7 +5223,7 @@
         <v>610</v>
       </c>
       <c r="B610">
-        <v>104.4179872936121</v>
+        <v>104.417987293612</v>
       </c>
     </row>
     <row r="611" spans="1:2">
@@ -5807,7 +5807,7 @@
         <v>683</v>
       </c>
       <c r="B683">
-        <v>71.65030060296436</v>
+        <v>71.65030060296435</v>
       </c>
     </row>
     <row r="684" spans="1:2">
@@ -6039,7 +6039,7 @@
         <v>712</v>
       </c>
       <c r="B712">
-        <v>81.21965615733461</v>
+        <v>81.2196561573346</v>
       </c>
     </row>
     <row r="713" spans="1:2">
@@ -6567,7 +6567,7 @@
         <v>778</v>
       </c>
       <c r="B778">
-        <v>6.835325141802422</v>
+        <v>6.835325141802421</v>
       </c>
     </row>
     <row r="779" spans="1:2">
@@ -6575,7 +6575,7 @@
         <v>779</v>
       </c>
       <c r="B779">
-        <v>6.69561817767256</v>
+        <v>6.695618177672559</v>
       </c>
     </row>
     <row r="780" spans="1:2">
@@ -6599,7 +6599,7 @@
         <v>782</v>
       </c>
       <c r="B782">
-        <v>38.99339476493066</v>
+        <v>38.99339476493065</v>
       </c>
     </row>
     <row r="783" spans="1:2">
@@ -7335,7 +7335,7 @@
         <v>874</v>
       </c>
       <c r="B874">
-        <v>2.052857120248806</v>
+        <v>2.052857120248805</v>
       </c>
     </row>
     <row r="875" spans="1:2">
@@ -7359,7 +7359,7 @@
         <v>877</v>
       </c>
       <c r="B877">
-        <v>122.708257745428</v>
+        <v>122.7082577454279</v>
       </c>
     </row>
     <row r="878" spans="1:2">
@@ -7527,7 +7527,7 @@
         <v>898</v>
       </c>
       <c r="B898">
-        <v>34.29019073649339</v>
+        <v>34.29019073649338</v>
       </c>
     </row>
     <row r="899" spans="1:2">
@@ -8487,7 +8487,7 @@
         <v>1018</v>
       </c>
       <c r="B1018">
-        <v>32.35387038405788</v>
+        <v>32.35387038405787</v>
       </c>
     </row>
     <row r="1019" spans="1:2">
@@ -8535,7 +8535,7 @@
         <v>1024</v>
       </c>
       <c r="B1024">
-        <v>81.07136221177197</v>
+        <v>81.07136221177196</v>
       </c>
     </row>
     <row r="1025" spans="1:2">
@@ -8679,7 +8679,7 @@
         <v>1042</v>
       </c>
       <c r="B1042">
-        <v>1.780825651452959</v>
+        <v>1.780825651452958</v>
       </c>
     </row>
     <row r="1043" spans="1:2">
@@ -8687,7 +8687,7 @@
         <v>1043</v>
       </c>
       <c r="B1043">
-        <v>30.09487881805623</v>
+        <v>30.09487881805622</v>
       </c>
     </row>
     <row r="1044" spans="1:2">
@@ -8895,7 +8895,7 @@
         <v>1069</v>
       </c>
       <c r="B1069">
-        <v>402.6209929129562</v>
+        <v>402.6209929129561</v>
       </c>
     </row>
     <row r="1070" spans="1:2">
@@ -8935,7 +8935,7 @@
         <v>1074</v>
       </c>
       <c r="B1074">
-        <v>258.7342496297048</v>
+        <v>258.7342496297047</v>
       </c>
     </row>
     <row r="1075" spans="1:2">
@@ -9031,7 +9031,7 @@
         <v>1086</v>
       </c>
       <c r="B1086">
-        <v>89.90950552468216</v>
+        <v>89.90950552468215</v>
       </c>
     </row>
     <row r="1087" spans="1:2">
@@ -9103,7 +9103,7 @@
         <v>1095</v>
       </c>
       <c r="B1095">
-        <v>185.125062204328</v>
+        <v>185.1250622043279</v>
       </c>
     </row>
     <row r="1096" spans="1:2">
@@ -10231,7 +10231,7 @@
         <v>1236</v>
       </c>
       <c r="B1236">
-        <v>518.0909821455263</v>
+        <v>518.0909821455261</v>
       </c>
     </row>
     <row r="1237" spans="1:2">
@@ -10239,7 +10239,7 @@
         <v>1237</v>
       </c>
       <c r="B1237">
-        <v>493.2385580670442</v>
+        <v>493.2385580670441</v>
       </c>
     </row>
     <row r="1238" spans="1:2">
@@ -10375,7 +10375,7 @@
         <v>1254</v>
       </c>
       <c r="B1254">
-        <v>337.1078929305991</v>
+        <v>337.107892930599</v>
       </c>
     </row>
     <row r="1255" spans="1:2">
@@ -10439,7 +10439,7 @@
         <v>1262</v>
       </c>
       <c r="B1262">
-        <v>447.1267608440681</v>
+        <v>447.126760844068</v>
       </c>
     </row>
     <row r="1263" spans="1:2">
@@ -10471,7 +10471,7 @@
         <v>1266</v>
       </c>
       <c r="B1266">
-        <v>381.097855833667</v>
+        <v>381.0978558336669</v>
       </c>
     </row>
     <row r="1267" spans="1:2">
@@ -10671,7 +10671,7 @@
         <v>1291</v>
       </c>
       <c r="B1291">
-        <v>406.4543620986466</v>
+        <v>406.4543620986465</v>
       </c>
     </row>
     <row r="1292" spans="1:2">
@@ -11343,7 +11343,7 @@
         <v>1375</v>
       </c>
       <c r="B1375">
-        <v>291.8128846923722</v>
+        <v>291.8128846923721</v>
       </c>
     </row>
     <row r="1376" spans="1:2">
@@ -11367,7 +11367,7 @@
         <v>1378</v>
       </c>
       <c r="B1378">
-        <v>421.4654606988807</v>
+        <v>421.4654606988806</v>
       </c>
     </row>
     <row r="1379" spans="1:2">
@@ -11583,7 +11583,7 @@
         <v>1405</v>
       </c>
       <c r="B1405">
-        <v>563.5199238484214</v>
+        <v>563.5199238484213</v>
       </c>
     </row>
     <row r="1406" spans="1:2">
@@ -11607,7 +11607,7 @@
         <v>1408</v>
       </c>
       <c r="B1408">
-        <v>610.2706159356792</v>
+        <v>610.2706159356791</v>
       </c>
     </row>
     <row r="1409" spans="1:2">
@@ -11967,7 +11967,7 @@
         <v>1453</v>
       </c>
       <c r="B1453">
-        <v>95.6062203741814</v>
+        <v>95.60622037418138</v>
       </c>
     </row>
     <row r="1454" spans="1:2">
@@ -12487,7 +12487,7 @@
         <v>1518</v>
       </c>
       <c r="B1518">
-        <v>60.55433800820717</v>
+        <v>60.55433800820716</v>
       </c>
     </row>
     <row r="1519" spans="1:2">
@@ -12503,7 +12503,7 @@
         <v>1520</v>
       </c>
       <c r="B1520">
-        <v>77.96099927845911</v>
+        <v>77.9609992784591</v>
       </c>
     </row>
     <row r="1521" spans="1:2">
@@ -12575,7 +12575,7 @@
         <v>1529</v>
       </c>
       <c r="B1529">
-        <v>313.8497753024347</v>
+        <v>313.8497753024346</v>
       </c>
     </row>
     <row r="1530" spans="1:2">
@@ -12687,7 +12687,7 @@
         <v>1543</v>
       </c>
       <c r="B1543">
-        <v>17.7744947308758</v>
+        <v>17.77449473087579</v>
       </c>
     </row>
     <row r="1544" spans="1:2">
@@ -12903,7 +12903,7 @@
         <v>1570</v>
       </c>
       <c r="B1570">
-        <v>522.6453060863236</v>
+        <v>522.6453060863234</v>
       </c>
     </row>
     <row r="1571" spans="1:2">
@@ -13159,7 +13159,7 @@
         <v>1602</v>
       </c>
       <c r="B1602">
-        <v>51.73172746034603</v>
+        <v>51.73172746034602</v>
       </c>
     </row>
     <row r="1603" spans="1:2">
@@ -13167,7 +13167,7 @@
         <v>1603</v>
       </c>
       <c r="B1603">
-        <v>6.133039011858241</v>
+        <v>6.13303901185824</v>
       </c>
     </row>
     <row r="1604" spans="1:2">
@@ -13823,7 +13823,7 @@
         <v>1685</v>
       </c>
       <c r="B1685">
-        <v>37.07231410650554</v>
+        <v>37.07231410650553</v>
       </c>
     </row>
     <row r="1686" spans="1:2">
@@ -13847,7 +13847,7 @@
         <v>1688</v>
       </c>
       <c r="B1688">
-        <v>81.66746870440915</v>
+        <v>81.66746870440913</v>
       </c>
     </row>
     <row r="1689" spans="1:2">
@@ -13895,7 +13895,7 @@
         <v>1694</v>
       </c>
       <c r="B1694">
-        <v>288.1802691681648</v>
+        <v>288.1802691681647</v>
       </c>
     </row>
     <row r="1695" spans="1:2">
@@ -13919,7 +13919,7 @@
         <v>1697</v>
       </c>
       <c r="B1697">
-        <v>381.1652621725591</v>
+        <v>381.165262172559</v>
       </c>
     </row>
     <row r="1698" spans="1:2">
@@ -14015,7 +14015,7 @@
         <v>1709</v>
       </c>
       <c r="B1709">
-        <v>79.28568037320839</v>
+        <v>79.28568037320838</v>
       </c>
     </row>
     <row r="1710" spans="1:2">
@@ -14071,7 +14071,7 @@
         <v>1716</v>
       </c>
       <c r="B1716">
-        <v>179.7800326012224</v>
+        <v>179.7800326012223</v>
       </c>
     </row>
     <row r="1717" spans="1:2">
@@ -14087,7 +14087,7 @@
         <v>1718</v>
       </c>
       <c r="B1718">
-        <v>184.9811643243453</v>
+        <v>184.9811643243452</v>
       </c>
     </row>
     <row r="1719" spans="1:2">
@@ -15167,7 +15167,7 @@
         <v>1853</v>
       </c>
       <c r="B1853">
-        <v>89.9273828580405</v>
+        <v>89.92738285804049</v>
       </c>
     </row>
     <row r="1854" spans="1:2">
@@ -15231,7 +15231,7 @@
         <v>1861</v>
       </c>
       <c r="B1861">
-        <v>495.7618997099184</v>
+        <v>495.7618997099183</v>
       </c>
     </row>
     <row r="1862" spans="1:2">
@@ -15615,7 +15615,7 @@
         <v>1909</v>
       </c>
       <c r="B1909">
-        <v>338.4618811292145</v>
+        <v>338.4618811292144</v>
       </c>
     </row>
     <row r="1910" spans="1:2">
@@ -15791,7 +15791,7 @@
         <v>1931</v>
       </c>
       <c r="B1931">
-        <v>426.3626777549118</v>
+        <v>426.3626777549117</v>
       </c>
     </row>
     <row r="1932" spans="1:2">
@@ -15991,7 +15991,7 @@
         <v>1956</v>
       </c>
       <c r="B1956">
-        <v>274.106118678531</v>
+        <v>274.1061186785309</v>
       </c>
     </row>
     <row r="1957" spans="1:2">
@@ -16007,7 +16007,7 @@
         <v>1958</v>
       </c>
       <c r="B1958">
-        <v>270.9236602697075</v>
+        <v>270.9236602697074</v>
       </c>
     </row>
     <row r="1959" spans="1:2">
@@ -16615,7 +16615,7 @@
         <v>2034</v>
       </c>
       <c r="B2034">
-        <v>243.4095650181031</v>
+        <v>243.409565018103</v>
       </c>
     </row>
     <row r="2035" spans="1:2">
@@ -16807,7 +16807,7 @@
         <v>2058</v>
       </c>
       <c r="B2058">
-        <v>230.8500056562711</v>
+        <v>230.850005656271</v>
       </c>
     </row>
     <row r="2059" spans="1:2">
@@ -16943,7 +16943,7 @@
         <v>2075</v>
       </c>
       <c r="B2075">
-        <v>279.2544976146949</v>
+        <v>279.2544976146948</v>
       </c>
     </row>
     <row r="2076" spans="1:2">
@@ -16999,7 +16999,7 @@
         <v>2082</v>
       </c>
       <c r="B2082">
-        <v>527.2758284971728</v>
+        <v>527.2758284971727</v>
       </c>
     </row>
     <row r="2083" spans="1:2">
@@ -17167,7 +17167,7 @@
         <v>2103</v>
       </c>
       <c r="B2103">
-        <v>497.4499888926077</v>
+        <v>497.4499888926076</v>
       </c>
     </row>
     <row r="2104" spans="1:2">
@@ -17175,7 +17175,7 @@
         <v>2104</v>
       </c>
       <c r="B2104">
-        <v>525.4587880574725</v>
+        <v>525.4587880574724</v>
       </c>
     </row>
     <row r="2105" spans="1:2">
@@ -17295,7 +17295,7 @@
         <v>2119</v>
       </c>
       <c r="B2119">
-        <v>246.9281759082712</v>
+        <v>246.9281759082711</v>
       </c>
     </row>
     <row r="2120" spans="1:2">
@@ -17343,7 +17343,7 @@
         <v>2125</v>
       </c>
       <c r="B2125">
-        <v>576.8253490036465</v>
+        <v>576.8253490036464</v>
       </c>
     </row>
     <row r="2126" spans="1:2">
@@ -17887,7 +17887,7 @@
         <v>2193</v>
       </c>
       <c r="B2193">
-        <v>382.8328363825422</v>
+        <v>382.8328363825421</v>
       </c>
     </row>
     <row r="2194" spans="1:2">
@@ -17927,7 +17927,7 @@
         <v>2198</v>
       </c>
       <c r="B2198">
-        <v>559.73930744969</v>
+        <v>559.7393074496899</v>
       </c>
     </row>
     <row r="2199" spans="1:2">
@@ -17951,7 +17951,7 @@
         <v>2201</v>
       </c>
       <c r="B2201">
-        <v>655.550091408857</v>
+        <v>655.5500914088569</v>
       </c>
     </row>
     <row r="2202" spans="1:2">
@@ -17959,7 +17959,7 @@
         <v>2202</v>
       </c>
       <c r="B2202">
-        <v>490.3723233089362</v>
+        <v>490.3723233089361</v>
       </c>
     </row>
     <row r="2203" spans="1:2">
@@ -18127,7 +18127,7 @@
         <v>2223</v>
       </c>
       <c r="B2223">
-        <v>776.8140950757619</v>
+        <v>776.8140950757618</v>
       </c>
     </row>
     <row r="2224" spans="1:2">
@@ -18271,7 +18271,7 @@
         <v>2241</v>
       </c>
       <c r="B2241">
-        <v>688.0282239133073</v>
+        <v>688.0282239133072</v>
       </c>
     </row>
     <row r="2242" spans="1:2">
@@ -18279,7 +18279,7 @@
         <v>2242</v>
       </c>
       <c r="B2242">
-        <v>770.785623810498</v>
+        <v>770.7856238104979</v>
       </c>
     </row>
     <row r="2243" spans="1:2">
@@ -18295,7 +18295,7 @@
         <v>2244</v>
       </c>
       <c r="B2244">
-        <v>832.4975924214175</v>
+        <v>832.4975924214174</v>
       </c>
     </row>
     <row r="2245" spans="1:2">
@@ -18319,7 +18319,7 @@
         <v>2247</v>
       </c>
       <c r="B2247">
-        <v>984.0504879339724</v>
+        <v>984.0504879339722</v>
       </c>
     </row>
     <row r="2248" spans="1:2">
@@ -18623,7 +18623,7 @@
         <v>2285</v>
       </c>
       <c r="B2285">
-        <v>349.2674103246583</v>
+        <v>349.2674103246582</v>
       </c>
     </row>
     <row r="2286" spans="1:2">
@@ -18647,7 +18647,7 @@
         <v>2288</v>
       </c>
       <c r="B2288">
-        <v>581.3796729444438</v>
+        <v>581.3796729444437</v>
       </c>
     </row>
     <row r="2289" spans="1:2">
@@ -18663,7 +18663,7 @@
         <v>2290</v>
       </c>
       <c r="B2290">
-        <v>747.9817662922587</v>
+        <v>747.9817662922586</v>
       </c>
     </row>
     <row r="2291" spans="1:2">
@@ -18671,7 +18671,7 @@
         <v>2291</v>
       </c>
       <c r="B2291">
-        <v>822.2401060682704</v>
+        <v>822.2401060682703</v>
       </c>
     </row>
     <row r="2292" spans="1:2">
@@ -19223,7 +19223,7 @@
         <v>2360</v>
       </c>
       <c r="B2360">
-        <v>155.4835642830809</v>
+        <v>155.4835642830808</v>
       </c>
     </row>
     <row r="2361" spans="1:2">
@@ -19231,7 +19231,7 @@
         <v>2361</v>
       </c>
       <c r="B2361">
-        <v>214.2211549226264</v>
+        <v>214.2211549226263</v>
       </c>
     </row>
     <row r="2362" spans="1:2">
@@ -19655,7 +19655,7 @@
         <v>2414</v>
       </c>
       <c r="B2414">
-        <v>512.2119771099797</v>
+        <v>512.2119771099796</v>
       </c>
     </row>
     <row r="2415" spans="1:2">
@@ -19799,7 +19799,7 @@
         <v>2432</v>
       </c>
       <c r="B2432">
-        <v>500.1521038690653</v>
+        <v>500.1521038690652</v>
       </c>
     </row>
     <row r="2433" spans="1:2">
@@ -19839,7 +19839,7 @@
         <v>2437</v>
       </c>
       <c r="B2437">
-        <v>710.2635236165436</v>
+        <v>710.2635236165435</v>
       </c>
     </row>
     <row r="2438" spans="1:2">
@@ -19847,7 +19847,7 @@
         <v>2438</v>
       </c>
       <c r="B2438">
-        <v>745.9126847593096</v>
+        <v>745.9126847593095</v>
       </c>
     </row>
     <row r="2439" spans="1:2">
@@ -19879,7 +19879,7 @@
         <v>2442</v>
       </c>
       <c r="B2442">
-        <v>603.304317346699</v>
+        <v>603.3043173466989</v>
       </c>
     </row>
     <row r="2443" spans="1:2">
@@ -20015,7 +20015,7 @@
         <v>2459</v>
       </c>
       <c r="B2459">
-        <v>677.0116835700273</v>
+        <v>677.0116835700272</v>
       </c>
     </row>
     <row r="2460" spans="1:2">
@@ -20047,7 +20047,7 @@
         <v>2463</v>
       </c>
       <c r="B2463">
-        <v>703.1213824043666</v>
+        <v>703.1213824043665</v>
       </c>
     </row>
     <row r="2464" spans="1:2">
@@ -20063,7 +20063,7 @@
         <v>2465</v>
       </c>
       <c r="B2465">
-        <v>544.4820291769804</v>
+        <v>544.4820291769803</v>
       </c>
     </row>
     <row r="2466" spans="1:2">
@@ -20639,7 +20639,7 @@
         <v>2537</v>
       </c>
       <c r="B2537">
-        <v>789.5099324705714</v>
+        <v>789.5099324705712</v>
       </c>
     </row>
     <row r="2538" spans="1:2">
@@ -20647,7 +20647,7 @@
         <v>2538</v>
       </c>
       <c r="B2538">
-        <v>630.3489127943679</v>
+        <v>630.3489127943678</v>
       </c>
     </row>
     <row r="2539" spans="1:2">
@@ -20791,7 +20791,7 @@
         <v>2556</v>
       </c>
       <c r="B2556">
-        <v>378.7239804205101</v>
+        <v>378.72398042051</v>
       </c>
     </row>
     <row r="2557" spans="1:2">
@@ -20967,7 +20967,7 @@
         <v>2578</v>
       </c>
       <c r="B2578">
-        <v>231.5240690451922</v>
+        <v>231.5240690451921</v>
       </c>
     </row>
     <row r="2579" spans="1:2">
@@ -21191,7 +21191,7 @@
         <v>2606</v>
       </c>
       <c r="B2606">
-        <v>531.5312199785355</v>
+        <v>531.5312199785354</v>
       </c>
     </row>
     <row r="2607" spans="1:2">
@@ -21223,7 +21223,7 @@
         <v>2610</v>
       </c>
       <c r="B2610">
-        <v>480.8475145524425</v>
+        <v>480.8475145524424</v>
       </c>
     </row>
     <row r="2611" spans="1:2">
@@ -21367,7 +21367,7 @@
         <v>2628</v>
       </c>
       <c r="B2628">
-        <v>516.3061795200787</v>
+        <v>516.3061795200786</v>
       </c>
     </row>
     <row r="2629" spans="1:2">
@@ -22095,7 +22095,7 @@
         <v>2719</v>
       </c>
       <c r="B2719">
-        <v>250.9370946461197</v>
+        <v>250.9370946461196</v>
       </c>
     </row>
     <row r="2720" spans="1:2">
@@ -22151,7 +22151,7 @@
         <v>2726</v>
       </c>
       <c r="B2726">
-        <v>519.3863561364094</v>
+        <v>519.3863561364093</v>
       </c>
     </row>
     <row r="2727" spans="1:2">
@@ -22271,7 +22271,7 @@
         <v>2741</v>
       </c>
       <c r="B2741">
-        <v>307.2263698286883</v>
+        <v>307.2263698286882</v>
       </c>
     </row>
     <row r="2742" spans="1:2">
@@ -22303,7 +22303,7 @@
         <v>2745</v>
       </c>
       <c r="B2745">
-        <v>471.4838948672125</v>
+        <v>471.4838948672124</v>
       </c>
     </row>
     <row r="2746" spans="1:2">
@@ -22551,7 +22551,7 @@
         <v>2776</v>
       </c>
       <c r="B2776">
-        <v>785.7732767276392</v>
+        <v>785.7732767276391</v>
       </c>
     </row>
     <row r="2777" spans="1:2">
@@ -22559,7 +22559,7 @@
         <v>2777</v>
       </c>
       <c r="B2777">
-        <v>746.5398567820449</v>
+        <v>746.5398567820448</v>
       </c>
     </row>
     <row r="2778" spans="1:2">
@@ -22671,7 +22671,7 @@
         <v>2791</v>
       </c>
       <c r="B2791">
-        <v>390.1332359555963</v>
+        <v>390.1332359555962</v>
       </c>
     </row>
     <row r="2792" spans="1:2">
@@ -22679,7 +22679,7 @@
         <v>2792</v>
       </c>
       <c r="B2792">
-        <v>464.004721960575</v>
+        <v>464.0047219605749</v>
       </c>
     </row>
     <row r="2793" spans="1:2">
@@ -22711,7 +22711,7 @@
         <v>2796</v>
       </c>
       <c r="B2796">
-        <v>563.1477236293215</v>
+        <v>563.1477236293214</v>
       </c>
     </row>
     <row r="2797" spans="1:2">
@@ -23287,7 +23287,7 @@
         <v>2868</v>
       </c>
       <c r="B2868">
-        <v>784.7914887481237</v>
+        <v>784.7914887481236</v>
       </c>
     </row>
     <row r="2869" spans="1:2">
@@ -23431,7 +23431,7 @@
         <v>2886</v>
       </c>
       <c r="B2886">
-        <v>330.3350212271354</v>
+        <v>330.3350212271353</v>
       </c>
     </row>
     <row r="2887" spans="1:2">
@@ -23439,7 +23439,7 @@
         <v>2887</v>
       </c>
       <c r="B2887">
-        <v>465.3147495033912</v>
+        <v>465.3147495033911</v>
       </c>
     </row>
     <row r="2888" spans="1:2">
@@ -23527,7 +23527,7 @@
         <v>2898</v>
       </c>
       <c r="B2898">
-        <v>683.5911283879745</v>
+        <v>683.5911283879744</v>
       </c>
     </row>
     <row r="2899" spans="1:2">
@@ -23863,7 +23863,7 @@
         <v>2940</v>
       </c>
       <c r="B2940">
-        <v>667.4429141577344</v>
+        <v>667.4429141577343</v>
       </c>
     </row>
     <row r="2941" spans="1:2">
@@ -24047,7 +24047,7 @@
         <v>2963</v>
       </c>
       <c r="B2963">
-        <v>601.8008629183663</v>
+        <v>601.8008629183662</v>
       </c>
     </row>
     <row r="2964" spans="1:2">
@@ -24071,7 +24071,7 @@
         <v>2966</v>
       </c>
       <c r="B2966">
-        <v>593.4952296827038</v>
+        <v>593.4952296827037</v>
       </c>
     </row>
     <row r="2967" spans="1:2">
@@ -24607,7 +24607,7 @@
         <v>3033</v>
       </c>
       <c r="B3033">
-        <v>1217.35554968111</v>
+        <v>1217.355549681109</v>
       </c>
     </row>
     <row r="3034" spans="1:2">
@@ -24767,7 +24767,7 @@
         <v>3053</v>
       </c>
       <c r="B3053">
-        <v>813.3102315202592</v>
+        <v>813.3102315202591</v>
       </c>
     </row>
     <row r="3054" spans="1:2">
@@ -25167,7 +25167,7 @@
         <v>3103</v>
       </c>
       <c r="B3103">
-        <v>899.5493153567467</v>
+        <v>899.5493153567465</v>
       </c>
     </row>
     <row r="3104" spans="1:2">
@@ -25191,7 +25191,7 @@
         <v>3106</v>
       </c>
       <c r="B3106">
-        <v>992.5788551590176</v>
+        <v>992.5788551590174</v>
       </c>
     </row>
     <row r="3107" spans="1:2">
@@ -25359,7 +25359,7 @@
         <v>3127</v>
       </c>
       <c r="B3127">
-        <v>499.5571696605828</v>
+        <v>499.5571696605827</v>
       </c>
     </row>
     <row r="3128" spans="1:2">
@@ -25407,7 +25407,7 @@
         <v>3133</v>
       </c>
       <c r="B3133">
-        <v>807.4165729327796</v>
+        <v>807.4165729327794</v>
       </c>
     </row>
     <row r="3134" spans="1:2">
@@ -25415,7 +25415,7 @@
         <v>3134</v>
       </c>
       <c r="B3134">
-        <v>873.1758525876122</v>
+        <v>873.1758525876121</v>
       </c>
     </row>
     <row r="3135" spans="1:2">
@@ -25447,7 +25447,7 @@
         <v>3138</v>
       </c>
       <c r="B3138">
-        <v>768.4791547362332</v>
+        <v>768.4791547362331</v>
       </c>
     </row>
     <row r="3139" spans="1:2">
@@ -25807,7 +25807,7 @@
         <v>3183</v>
       </c>
       <c r="B3183">
-        <v>36.50141172319324</v>
+        <v>36.50141172319323</v>
       </c>
     </row>
     <row r="3184" spans="1:2">
@@ -25983,7 +25983,7 @@
         <v>3205</v>
       </c>
       <c r="B3205">
-        <v>709.1645072215636</v>
+        <v>709.1645072215634</v>
       </c>
     </row>
     <row r="3206" spans="1:2">
@@ -26119,7 +26119,7 @@
         <v>3222</v>
       </c>
       <c r="B3222">
-        <v>406.9086222085717</v>
+        <v>406.9086222085716</v>
       </c>
     </row>
     <row r="3223" spans="1:2">
@@ -26191,7 +26191,7 @@
         <v>3231</v>
       </c>
       <c r="B3231">
-        <v>897.6297000535149</v>
+        <v>897.6297000535147</v>
       </c>
     </row>
     <row r="3232" spans="1:2">
@@ -26319,7 +26319,7 @@
         <v>3247</v>
       </c>
       <c r="B3247">
-        <v>555.6744121434572</v>
+        <v>555.6744121434571</v>
       </c>
     </row>
     <row r="3248" spans="1:2">
@@ -26327,7 +26327,7 @@
         <v>3248</v>
       </c>
       <c r="B3248">
-        <v>763.2976587727006</v>
+        <v>763.2976587727005</v>
       </c>
     </row>
     <row r="3249" spans="1:2">
@@ -26343,7 +26343,7 @@
         <v>3250</v>
       </c>
       <c r="B3250">
-        <v>891.2759199353369</v>
+        <v>891.2759199353368</v>
       </c>
     </row>
     <row r="3251" spans="1:2">
@@ -26359,7 +26359,7 @@
         <v>3252</v>
       </c>
       <c r="B3252">
-        <v>962.1698041875164</v>
+        <v>962.1698041875162</v>
       </c>
     </row>
     <row r="3253" spans="1:2">
@@ -26407,7 +26407,7 @@
         <v>3258</v>
       </c>
       <c r="B3258">
-        <v>1003.890928337684</v>
+        <v>1003.890928337683</v>
       </c>
     </row>
     <row r="3259" spans="1:2">
@@ -27263,7 +27263,7 @@
         <v>3365</v>
       </c>
       <c r="B3365">
-        <v>186.1660505336531</v>
+        <v>186.166050533653</v>
       </c>
     </row>
     <row r="3366" spans="1:2">
@@ -27271,7 +27271,7 @@
         <v>3366</v>
       </c>
       <c r="B3366">
-        <v>221.2818223860555</v>
+        <v>221.2818223860554</v>
       </c>
     </row>
     <row r="3367" spans="1:2">
@@ -27343,7 +27343,7 @@
         <v>3375</v>
       </c>
       <c r="B3375">
-        <v>541.7271614135637</v>
+        <v>541.7271614135636</v>
       </c>
     </row>
     <row r="3376" spans="1:2">
@@ -27479,7 +27479,7 @@
         <v>3392</v>
       </c>
       <c r="B3392">
-        <v>493.4231928214008</v>
+        <v>493.4231928214007</v>
       </c>
     </row>
     <row r="3393" spans="1:2">
@@ -27511,7 +27511,7 @@
         <v>3396</v>
       </c>
       <c r="B3396">
-        <v>588.5833590747396</v>
+        <v>588.5833590747395</v>
       </c>
     </row>
     <row r="3397" spans="1:2">
@@ -27551,7 +27551,7 @@
         <v>3401</v>
       </c>
       <c r="B3401">
-        <v>819.0720081403413</v>
+        <v>819.0720081403412</v>
       </c>
     </row>
     <row r="3402" spans="1:2">
@@ -27719,7 +27719,7 @@
         <v>3422</v>
       </c>
       <c r="B3422">
-        <v>889.7138512992719</v>
+        <v>889.7138512992718</v>
       </c>
     </row>
     <row r="3423" spans="1:2">
@@ -27727,7 +27727,7 @@
         <v>3423</v>
       </c>
       <c r="B3423">
-        <v>970.9795196096763</v>
+        <v>970.9795196096762</v>
       </c>
     </row>
     <row r="3424" spans="1:2">
@@ -27735,7 +27735,7 @@
         <v>3424</v>
       </c>
       <c r="B3424">
-        <v>1003.935357907145</v>
+        <v>1003.935357907144</v>
       </c>
     </row>
     <row r="3425" spans="1:2">
@@ -27863,7 +27863,7 @@
         <v>3440</v>
       </c>
       <c r="B3440">
-        <v>840.6068680611769</v>
+        <v>840.6068680611768</v>
       </c>
     </row>
     <row r="3441" spans="1:2">
@@ -27903,7 +27903,7 @@
         <v>3445</v>
       </c>
       <c r="B3445">
-        <v>1140.195806622351</v>
+        <v>1140.19580662235</v>
       </c>
     </row>
     <row r="3446" spans="1:2">
@@ -28031,7 +28031,7 @@
         <v>3461</v>
       </c>
       <c r="B3461">
-        <v>936.5817718019944</v>
+        <v>936.581771801994</v>
       </c>
     </row>
     <row r="3462" spans="1:2">
@@ -28039,7 +28039,7 @@
         <v>3462</v>
       </c>
       <c r="B3462">
-        <v>904.256036237648</v>
+        <v>904.2560362376478</v>
       </c>
     </row>
     <row r="3463" spans="1:2">
@@ -28119,7 +28119,7 @@
         <v>3472</v>
       </c>
       <c r="B3472">
-        <v>1454.47724625763</v>
+        <v>1454.477246257629</v>
       </c>
     </row>
     <row r="3473" spans="1:2">
@@ -28455,7 +28455,7 @@
         <v>3514</v>
       </c>
       <c r="B3514">
-        <v>45.21206913428574</v>
+        <v>45.21206913428573</v>
       </c>
     </row>
     <row r="3515" spans="1:2">
@@ -28463,7 +28463,7 @@
         <v>3515</v>
       </c>
       <c r="B3515">
-        <v>44.55998607326425</v>
+        <v>44.55998607326424</v>
       </c>
     </row>
     <row r="3516" spans="1:2">
@@ -29071,7 +29071,7 @@
         <v>3591</v>
       </c>
       <c r="B3591">
-        <v>1807.104628119229</v>
+        <v>1807.104628119228</v>
       </c>
     </row>
     <row r="3592" spans="1:2">
@@ -29199,7 +29199,7 @@
         <v>3607</v>
       </c>
       <c r="B3607">
-        <v>1490.752729517119</v>
+        <v>1490.752729517118</v>
       </c>
     </row>
     <row r="3608" spans="1:2">
@@ -29239,7 +29239,7 @@
         <v>3612</v>
       </c>
       <c r="B3612">
-        <v>1775.839721793525</v>
+        <v>1775.839721793524</v>
       </c>
     </row>
     <row r="3613" spans="1:2">
@@ -29951,7 +29951,7 @@
         <v>3701</v>
       </c>
       <c r="B3701">
-        <v>705.9788250313147</v>
+        <v>705.9788250313146</v>
       </c>
     </row>
     <row r="3702" spans="1:2">
@@ -30175,7 +30175,7 @@
         <v>3729</v>
       </c>
       <c r="B3729">
-        <v>931.4794050189004</v>
+        <v>931.4794050189</v>
       </c>
     </row>
     <row r="3730" spans="1:2">
@@ -30223,7 +30223,7 @@
         <v>3735</v>
       </c>
       <c r="B3735">
-        <v>1360.360530130341</v>
+        <v>1360.36053013034</v>
       </c>
     </row>
     <row r="3736" spans="1:2">
@@ -30527,7 +30527,7 @@
         <v>3773</v>
       </c>
       <c r="B3773">
-        <v>1270.199188662137</v>
+        <v>1270.199188662136</v>
       </c>
     </row>
     <row r="3774" spans="1:2">
@@ -30583,7 +30583,7 @@
         <v>3780</v>
       </c>
       <c r="B3780">
-        <v>1944.63946693895</v>
+        <v>1944.639466938949</v>
       </c>
     </row>
     <row r="3781" spans="1:2">
@@ -30743,7 +30743,7 @@
         <v>3800</v>
       </c>
       <c r="B3800">
-        <v>1174.995061752999</v>
+        <v>1174.995061752998</v>
       </c>
     </row>
     <row r="3801" spans="1:2">
@@ -31311,7 +31311,7 @@
         <v>3871</v>
       </c>
       <c r="B3871">
-        <v>954.9514645052874</v>
+        <v>954.9514645052872</v>
       </c>
     </row>
     <row r="3872" spans="1:2">
@@ -31495,7 +31495,7 @@
         <v>3894</v>
       </c>
       <c r="B3894">
-        <v>1111.020584723614</v>
+        <v>1111.020584723613</v>
       </c>
     </row>
     <row r="3895" spans="1:2">
@@ -31543,7 +31543,7 @@
         <v>3900</v>
       </c>
       <c r="B3900">
-        <v>1336.790790066768</v>
+        <v>1336.790790066767</v>
       </c>
     </row>
     <row r="3901" spans="1:2">
@@ -31791,7 +31791,7 @@
         <v>3931</v>
       </c>
       <c r="B3931">
-        <v>19.2116564902633</v>
+        <v>19.21165649026329</v>
       </c>
     </row>
     <row r="3932" spans="1:2">
@@ -31887,7 +31887,7 @@
         <v>3943</v>
       </c>
       <c r="B3943">
-        <v>1429.3690004695</v>
+        <v>1429.369000469499</v>
       </c>
     </row>
     <row r="3944" spans="1:2">
@@ -32071,7 +32071,7 @@
         <v>3966</v>
       </c>
       <c r="B3966">
-        <v>1670.024283866264</v>
+        <v>1670.024283866263</v>
       </c>
     </row>
     <row r="3967" spans="1:2">
@@ -32303,7 +32303,7 @@
         <v>3995</v>
       </c>
       <c r="B3995">
-        <v>65.62300162185514</v>
+        <v>65.62300162185512</v>
       </c>
     </row>
     <row r="3996" spans="1:2">
@@ -32751,7 +32751,7 @@
         <v>4051</v>
       </c>
       <c r="B4051">
-        <v>37.63002829307808</v>
+        <v>37.63002829307807</v>
       </c>
     </row>
     <row r="4052" spans="1:2">
@@ -33023,7 +33023,7 @@
         <v>4085</v>
       </c>
       <c r="B4085">
-        <v>1333.098094979635</v>
+        <v>1333.098094979634</v>
       </c>
     </row>
     <row r="4086" spans="1:2">
@@ -33079,7 +33079,7 @@
         <v>4092</v>
       </c>
       <c r="B4092">
-        <v>1882.344286961094</v>
+        <v>1882.344286961093</v>
       </c>
     </row>
     <row r="4093" spans="1:2">
@@ -33431,7 +33431,7 @@
         <v>4136</v>
       </c>
       <c r="B4136">
-        <v>1447.621464757329</v>
+        <v>1447.621464757328</v>
       </c>
     </row>
     <row r="4137" spans="1:2">
@@ -33655,7 +33655,7 @@
         <v>4164</v>
       </c>
       <c r="B4164">
-        <v>43.67315311027502</v>
+        <v>43.67315311027501</v>
       </c>
     </row>
     <row r="4165" spans="1:2">
@@ -33671,7 +33671,7 @@
         <v>4166</v>
       </c>
       <c r="B4166">
-        <v>37.55119218367818</v>
+        <v>37.55119218367817</v>
       </c>
     </row>
     <row r="4167" spans="1:2">
@@ -33799,7 +33799,7 @@
         <v>4182</v>
       </c>
       <c r="B4182">
-        <v>21.43460031850961</v>
+        <v>21.4346003185096</v>
       </c>
     </row>
     <row r="4183" spans="1:2">
@@ -33815,7 +33815,7 @@
         <v>4184</v>
       </c>
       <c r="B4184">
-        <v>50.30242000479465</v>
+        <v>50.30242000479464</v>
       </c>
     </row>
     <row r="4185" spans="1:2">
@@ -33839,7 +33839,7 @@
         <v>4187</v>
       </c>
       <c r="B4187">
-        <v>71.44368552070812</v>
+        <v>71.4436855207081</v>
       </c>
     </row>
     <row r="4188" spans="1:2">
@@ -33871,7 +33871,7 @@
         <v>4191</v>
       </c>
       <c r="B4191">
-        <v>82.26357519704632</v>
+        <v>82.26357519704631</v>
       </c>
     </row>
     <row r="4192" spans="1:2">
@@ -34047,7 +34047,7 @@
         <v>4213</v>
       </c>
       <c r="B4213">
-        <v>2025.170699226469</v>
+        <v>2025.170699226468</v>
       </c>
     </row>
     <row r="4214" spans="1:2">
@@ -34095,7 +34095,7 @@
         <v>4219</v>
       </c>
       <c r="B4219">
-        <v>18.09423523405533</v>
+        <v>18.09423523405532</v>
       </c>
     </row>
     <row r="4220" spans="1:2">
@@ -34751,7 +34751,7 @@
         <v>4301</v>
       </c>
       <c r="B4301">
-        <v>1350.421524074907</v>
+        <v>1350.421524074906</v>
       </c>
     </row>
     <row r="4302" spans="1:2">
@@ -35183,7 +35183,7 @@
         <v>4355</v>
       </c>
       <c r="B4355">
-        <v>42.51171258406011</v>
+        <v>42.5117125840601</v>
       </c>
     </row>
     <row r="4356" spans="1:2">
@@ -35519,7 +35519,7 @@
         <v>4397</v>
       </c>
       <c r="B4397">
-        <v>1396.269557363088</v>
+        <v>1396.269557363087</v>
       </c>
     </row>
     <row r="4398" spans="1:2">
@@ -36511,7 +36511,7 @@
         <v>4521</v>
       </c>
       <c r="B4521">
-        <v>79.92281681125816</v>
+        <v>79.92281681125814</v>
       </c>
     </row>
     <row r="4522" spans="1:2">
@@ -36519,7 +36519,7 @@
         <v>4522</v>
       </c>
       <c r="B4522">
-        <v>79.17900251513566</v>
+        <v>79.17900251513565</v>
       </c>
     </row>
     <row r="4523" spans="1:2">
@@ -36543,7 +36543,7 @@
         <v>4525</v>
       </c>
       <c r="B4525">
-        <v>82.96225655321497</v>
+        <v>82.96225655321496</v>
       </c>
     </row>
     <row r="4526" spans="1:2">
@@ -36863,7 +36863,7 @@
         <v>4565</v>
       </c>
       <c r="B4565">
-        <v>1413.950533125527</v>
+        <v>1413.950533125526</v>
       </c>
     </row>
     <row r="4566" spans="1:2">
@@ -37055,7 +37055,7 @@
         <v>4589</v>
       </c>
       <c r="B4589">
-        <v>1071.010526525567</v>
+        <v>1071.010526525566</v>
       </c>
     </row>
     <row r="4590" spans="1:2">
@@ -37543,7 +37543,7 @@
         <v>4650</v>
       </c>
       <c r="B4650">
-        <v>1488.038891699115</v>
+        <v>1488.038891699114</v>
       </c>
     </row>
     <row r="4651" spans="1:2">
@@ -37863,7 +37863,7 @@
         <v>4690</v>
       </c>
       <c r="B4690">
-        <v>46.09333374754041</v>
+        <v>46.0933337475404</v>
       </c>
     </row>
     <row r="4691" spans="1:2">
@@ -37871,7 +37871,7 @@
         <v>4691</v>
       </c>
       <c r="B4691">
-        <v>47.16099154138369</v>
+        <v>47.16099154138368</v>
       </c>
     </row>
     <row r="4692" spans="1:2">
@@ -38039,7 +38039,7 @@
         <v>4712</v>
       </c>
       <c r="B4712">
-        <v>1898.651931836366</v>
+        <v>1898.651931836365</v>
       </c>
     </row>
     <row r="4713" spans="1:2">
@@ -38247,7 +38247,7 @@
         <v>4738</v>
       </c>
       <c r="B4738">
-        <v>1951.39563359321</v>
+        <v>1951.395633593209</v>
       </c>
     </row>
     <row r="4739" spans="1:2">
@@ -38287,7 +38287,7 @@
         <v>4743</v>
       </c>
       <c r="B4743">
-        <v>2019.622278322532</v>
+        <v>2019.622278322531</v>
       </c>
     </row>
     <row r="4744" spans="1:2">
@@ -38319,7 +38319,7 @@
         <v>4747</v>
       </c>
       <c r="B4747">
-        <v>36.07880328544358</v>
+        <v>36.07880328544357</v>
       </c>
     </row>
     <row r="4748" spans="1:2">
@@ -38647,7 +38647,7 @@
         <v>4788</v>
       </c>
       <c r="B4788">
-        <v>2163.1945563813</v>
+        <v>2163.194556381299</v>
       </c>
     </row>
     <row r="4789" spans="1:2">
@@ -38727,7 +38727,7 @@
         <v>4798</v>
       </c>
       <c r="B4798">
-        <v>6.24874345792174</v>
+        <v>6.248743457921739</v>
       </c>
     </row>
     <row r="4799" spans="1:2">
@@ -38831,7 +38831,7 @@
         <v>4811</v>
       </c>
       <c r="B4811">
-        <v>2275.978549544539</v>
+        <v>2275.978549544538</v>
       </c>
     </row>
     <row r="4812" spans="1:2">
@@ -38863,7 +38863,7 @@
         <v>4815</v>
       </c>
       <c r="B4815">
-        <v>2403.686013067452</v>
+        <v>2403.686013067451</v>
       </c>
     </row>
     <row r="4816" spans="1:2">
@@ -38879,7 +38879,7 @@
         <v>4817</v>
       </c>
       <c r="B4817">
-        <v>2078.236486054801</v>
+        <v>2078.2364860548</v>
       </c>
     </row>
     <row r="4818" spans="1:2">
@@ -39031,7 +39031,7 @@
         <v>4836</v>
       </c>
       <c r="B4836">
-        <v>74.68974034492118</v>
+        <v>74.68974034492116</v>
       </c>
     </row>
     <row r="4837" spans="1:2">
@@ -39183,7 +39183,7 @@
         <v>4855</v>
       </c>
       <c r="B4855">
-        <v>79.28099123658981</v>
+        <v>79.2809912365898</v>
       </c>
     </row>
     <row r="4856" spans="1:2">
@@ -39239,7 +39239,7 @@
         <v>4862</v>
       </c>
       <c r="B4862">
-        <v>79.07965143302947</v>
+        <v>79.07965143302945</v>
       </c>
     </row>
     <row r="4863" spans="1:2">
@@ -39271,7 +39271,7 @@
         <v>4866</v>
       </c>
       <c r="B4866">
-        <v>35.26846186354496</v>
+        <v>35.26846186354495</v>
       </c>
     </row>
     <row r="4867" spans="1:2">
@@ -39399,7 +39399,7 @@
         <v>4882</v>
       </c>
       <c r="B4882">
-        <v>2575.969581570756</v>
+        <v>2575.969581570755</v>
       </c>
     </row>
     <row r="4883" spans="1:2">
@@ -39479,7 +39479,7 @@
         <v>4892</v>
       </c>
       <c r="B4892">
-        <v>6.933621168169438</v>
+        <v>6.933621168169437</v>
       </c>
     </row>
     <row r="4893" spans="1:2">
@@ -39495,7 +39495,7 @@
         <v>4894</v>
       </c>
       <c r="B4894">
-        <v>4.880131014477124</v>
+        <v>4.880131014477123</v>
       </c>
     </row>
     <row r="4895" spans="1:2">
@@ -39583,7 +39583,7 @@
         <v>4905</v>
       </c>
       <c r="B4905">
-        <v>1860.019952276313</v>
+        <v>1860.019952276312</v>
       </c>
     </row>
     <row r="4906" spans="1:2">
@@ -39615,7 +39615,7 @@
         <v>4909</v>
       </c>
       <c r="B4909">
-        <v>2125.959880919376</v>
+        <v>2125.959880919375</v>
       </c>
     </row>
     <row r="4910" spans="1:2">
@@ -39639,7 +39639,7 @@
         <v>4912</v>
       </c>
       <c r="B4912">
-        <v>2192.887927876391</v>
+        <v>2192.88792787639</v>
       </c>
     </row>
     <row r="4913" spans="1:2">
@@ -39663,7 +39663,7 @@
         <v>4915</v>
       </c>
       <c r="B4915">
-        <v>23.57806328107096</v>
+        <v>23.57806328107095</v>
       </c>
     </row>
     <row r="4916" spans="1:2">
@@ -40215,7 +40215,7 @@
         <v>4984</v>
       </c>
       <c r="B4984">
-        <v>1527.216364383429</v>
+        <v>1527.216364383428</v>
       </c>
     </row>
     <row r="4985" spans="1:2">
@@ -40535,7 +40535,7 @@
         <v>5024</v>
       </c>
       <c r="B5024">
-        <v>25.73990179775637</v>
+        <v>25.73990179775636</v>
       </c>
     </row>
     <row r="5025" spans="1:2">
@@ -40543,7 +40543,7 @@
         <v>5025</v>
       </c>
       <c r="B5025">
-        <v>29.91522627135683</v>
+        <v>29.91522627135682</v>
       </c>
     </row>
     <row r="5026" spans="1:2">
@@ -41007,7 +41007,7 @@
         <v>5083</v>
       </c>
       <c r="B5083">
-        <v>12.99670412309922</v>
+        <v>12.99670412309921</v>
       </c>
     </row>
     <row r="5084" spans="1:2">
@@ -41175,7 +41175,7 @@
         <v>5104</v>
       </c>
       <c r="B5104">
-        <v>1874.897644939748</v>
+        <v>1874.897644939747</v>
       </c>
     </row>
     <row r="5105" spans="1:2">
@@ -41335,7 +41335,7 @@
         <v>5124</v>
       </c>
       <c r="B5124">
-        <v>2000.16880891827</v>
+        <v>2000.168808918269</v>
       </c>
     </row>
     <row r="5125" spans="1:2">
@@ -41519,7 +41519,7 @@
         <v>5147</v>
       </c>
       <c r="B5147">
-        <v>1567.086041553957</v>
+        <v>1567.086041553956</v>
       </c>
     </row>
     <row r="5148" spans="1:2">
@@ -41703,7 +41703,7 @@
         <v>5170</v>
       </c>
       <c r="B5170">
-        <v>52.27918416056542</v>
+        <v>52.27918416056541</v>
       </c>
     </row>
     <row r="5171" spans="1:2">
@@ -41903,7 +41903,7 @@
         <v>5195</v>
       </c>
       <c r="B5195">
-        <v>60.27152445589897</v>
+        <v>60.27152445589896</v>
       </c>
     </row>
     <row r="5196" spans="1:2">
@@ -42055,7 +42055,7 @@
         <v>5214</v>
       </c>
       <c r="B5214">
-        <v>775.4132155109606</v>
+        <v>775.4132155109605</v>
       </c>
     </row>
     <row r="5215" spans="1:2">
@@ -42079,7 +42079,7 @@
         <v>5217</v>
       </c>
       <c r="B5217">
-        <v>971.5920380804786</v>
+        <v>971.5920380804783</v>
       </c>
     </row>
     <row r="5218" spans="1:2">
@@ -42111,7 +42111,7 @@
         <v>5221</v>
       </c>
       <c r="B5221">
-        <v>1205.330844964835</v>
+        <v>1205.330844964834</v>
       </c>
     </row>
     <row r="5222" spans="1:2">
@@ -42239,7 +42239,7 @@
         <v>5237</v>
       </c>
       <c r="B5237">
-        <v>629.7393250339524</v>
+        <v>629.7393250339522</v>
       </c>
     </row>
     <row r="5238" spans="1:2">
@@ -42855,7 +42855,7 @@
         <v>5314</v>
       </c>
       <c r="B5314">
-        <v>1429.697240032801</v>
+        <v>1429.6972400328</v>
       </c>
     </row>
     <row r="5315" spans="1:2">
@@ -42879,7 +42879,7 @@
         <v>5317</v>
       </c>
       <c r="B5317">
-        <v>1599.250500125728</v>
+        <v>1599.250500125727</v>
       </c>
     </row>
     <row r="5318" spans="1:2">
@@ -43231,7 +43231,7 @@
         <v>5361</v>
       </c>
       <c r="B5361">
-        <v>60.19503291480836</v>
+        <v>60.19503291480835</v>
       </c>
     </row>
     <row r="5362" spans="1:2">
@@ -43239,7 +43239,7 @@
         <v>5362</v>
       </c>
       <c r="B5362">
-        <v>64.88856559896981</v>
+        <v>64.88856559896979</v>
       </c>
     </row>
     <row r="5363" spans="1:2">
@@ -43423,7 +43423,7 @@
         <v>5385</v>
       </c>
       <c r="B5385">
-        <v>2184.714176608125</v>
+        <v>2184.714176608124</v>
       </c>
     </row>
     <row r="5386" spans="1:2">
@@ -43631,7 +43631,7 @@
         <v>5411</v>
       </c>
       <c r="B5411">
-        <v>2080.264830713376</v>
+        <v>2080.264830713375</v>
       </c>
     </row>
     <row r="5412" spans="1:2">
@@ -43967,7 +43967,7 @@
         <v>5453</v>
       </c>
       <c r="B5453">
-        <v>911.5769507834084</v>
+        <v>911.5769507834082</v>
       </c>
     </row>
     <row r="5454" spans="1:2">
@@ -44167,7 +44167,7 @@
         <v>5478</v>
       </c>
       <c r="B5478">
-        <v>1192.828434455542</v>
+        <v>1192.828434455541</v>
       </c>
     </row>
     <row r="5479" spans="1:2">
@@ -44399,7 +44399,7 @@
         <v>5507</v>
       </c>
       <c r="B5507">
-        <v>9.362300865556008</v>
+        <v>9.362300865556003</v>
       </c>
     </row>
     <row r="5508" spans="1:2">
@@ -44455,7 +44455,7 @@
         <v>5514</v>
       </c>
       <c r="B5514">
-        <v>8.277732872781966</v>
+        <v>8.277732872781964</v>
       </c>
     </row>
     <row r="5515" spans="1:2">
@@ -44583,7 +44583,7 @@
         <v>5530</v>
       </c>
       <c r="B5530">
-        <v>45.22467118894818</v>
+        <v>45.22467118894817</v>
       </c>
     </row>
     <row r="5531" spans="1:2">
@@ -44767,7 +44767,7 @@
         <v>5553</v>
       </c>
       <c r="B5553">
-        <v>1826.336653046679</v>
+        <v>1826.336653046678</v>
       </c>
     </row>
     <row r="5554" spans="1:2">
@@ -44791,7 +44791,7 @@
         <v>5556</v>
       </c>
       <c r="B5556">
-        <v>1938.888827018337</v>
+        <v>1938.888827018336</v>
       </c>
     </row>
     <row r="5557" spans="1:2">
@@ -44815,7 +44815,7 @@
         <v>5559</v>
       </c>
       <c r="B5559">
-        <v>2006.825917561462</v>
+        <v>2006.825917561461</v>
       </c>
     </row>
     <row r="5560" spans="1:2">
@@ -44823,7 +44823,7 @@
         <v>5560</v>
       </c>
       <c r="B5560">
-        <v>2052.886427352672</v>
+        <v>2052.886427352671</v>
       </c>
     </row>
     <row r="5561" spans="1:2">
@@ -44943,7 +44943,7 @@
         <v>5575</v>
       </c>
       <c r="B5575">
-        <v>1411.805253122526</v>
+        <v>1411.805253122525</v>
       </c>
     </row>
     <row r="5576" spans="1:2">
@@ -44983,7 +44983,7 @@
         <v>5580</v>
       </c>
       <c r="B5580">
-        <v>1645.339994642662</v>
+        <v>1645.339994642661</v>
       </c>
     </row>
     <row r="5581" spans="1:2">
@@ -45503,7 +45503,7 @@
         <v>5645</v>
       </c>
       <c r="B5645">
-        <v>580.7993922878943</v>
+        <v>580.7993922878942</v>
       </c>
     </row>
     <row r="5646" spans="1:2">
@@ -45519,7 +45519,7 @@
         <v>5647</v>
       </c>
       <c r="B5647">
-        <v>780.4745523486421</v>
+        <v>780.474552348642</v>
       </c>
     </row>
     <row r="5648" spans="1:2">
@@ -45599,7 +45599,7 @@
         <v>5657</v>
       </c>
       <c r="B5657">
-        <v>1311.986722709665</v>
+        <v>1311.986722709664</v>
       </c>
     </row>
     <row r="5658" spans="1:2">
@@ -45607,7 +45607,7 @@
         <v>5658</v>
       </c>
       <c r="B5658">
-        <v>1119.264379970119</v>
+        <v>1119.264379970118</v>
       </c>
     </row>
     <row r="5659" spans="1:2">
@@ -45943,7 +45943,7 @@
         <v>5700</v>
       </c>
       <c r="B5700">
-        <v>61.5147318019004</v>
+        <v>61.51473180190039</v>
       </c>
     </row>
     <row r="5701" spans="1:2">
@@ -45967,7 +45967,7 @@
         <v>5703</v>
       </c>
       <c r="B5703">
-        <v>69.65331454552596</v>
+        <v>69.65331454552594</v>
       </c>
     </row>
     <row r="5704" spans="1:2">
@@ -46119,7 +46119,7 @@
         <v>5722</v>
       </c>
       <c r="B5722">
-        <v>1796.094652567215</v>
+        <v>1796.094652567214</v>
       </c>
     </row>
     <row r="5723" spans="1:2">
@@ -46671,7 +46671,7 @@
         <v>5791</v>
       </c>
       <c r="B5791">
-        <v>921.9223584481538</v>
+        <v>921.9223584481535</v>
       </c>
     </row>
     <row r="5792" spans="1:2">
@@ -46751,7 +46751,7 @@
         <v>5801</v>
       </c>
       <c r="B5801">
-        <v>1324.433244571885</v>
+        <v>1324.433244571884</v>
       </c>
     </row>
     <row r="5802" spans="1:2">
@@ -47647,7 +47647,7 @@
         <v>5913</v>
       </c>
       <c r="B5913">
-        <v>981.9960599529564</v>
+        <v>981.9960599529562</v>
       </c>
     </row>
     <row r="5914" spans="1:2">
@@ -47855,7 +47855,7 @@
         <v>5939</v>
       </c>
       <c r="B5939">
-        <v>940.8547475456768</v>
+        <v>940.8547475456766</v>
       </c>
     </row>
     <row r="5940" spans="1:2">
@@ -47895,7 +47895,7 @@
         <v>5944</v>
       </c>
       <c r="B5944">
-        <v>1169.787189395987</v>
+        <v>1169.787189395986</v>
       </c>
     </row>
     <row r="5945" spans="1:2">
@@ -48255,7 +48255,7 @@
         <v>5989</v>
       </c>
       <c r="B5989">
-        <v>1512.589013001218</v>
+        <v>1512.589013001217</v>
       </c>
     </row>
     <row r="5990" spans="1:2">
@@ -48455,7 +48455,7 @@
         <v>6014</v>
       </c>
       <c r="B6014">
-        <v>7.633152430350203</v>
+        <v>7.633152430350202</v>
       </c>
     </row>
     <row r="6015" spans="1:2">
@@ -48855,7 +48855,7 @@
         <v>6064</v>
       </c>
       <c r="B6064">
-        <v>1541.597624014476</v>
+        <v>1541.597624014475</v>
       </c>
     </row>
     <row r="6065" spans="1:2">
@@ -49047,7 +49047,7 @@
         <v>6088</v>
       </c>
       <c r="B6088">
-        <v>1596.066840125646</v>
+        <v>1596.066840125645</v>
       </c>
     </row>
     <row r="6089" spans="1:2">
@@ -49535,7 +49535,7 @@
         <v>6149</v>
       </c>
       <c r="B6149">
-        <v>676.9091087064959</v>
+        <v>676.9091087064958</v>
       </c>
     </row>
     <row r="6150" spans="1:2">
@@ -49551,7 +49551,7 @@
         <v>6151</v>
       </c>
       <c r="B6151">
-        <v>867.6368099569128</v>
+        <v>867.6368099569127</v>
       </c>
     </row>
     <row r="6152" spans="1:2">
@@ -49823,7 +49823,7 @@
         <v>6185</v>
       </c>
       <c r="B6185">
-        <v>8.720885590341787</v>
+        <v>8.720885590341785</v>
       </c>
     </row>
     <row r="6186" spans="1:2">
@@ -50759,7 +50759,7 @@
         <v>6302</v>
       </c>
       <c r="B6302">
-        <v>1719.838623363272</v>
+        <v>1719.838623363271</v>
       </c>
     </row>
     <row r="6303" spans="1:2">
@@ -50951,7 +50951,7 @@
         <v>6326</v>
       </c>
       <c r="B6326">
-        <v>864.0056597878987</v>
+        <v>864.0056597878986</v>
       </c>
     </row>
     <row r="6327" spans="1:2">
@@ -50967,7 +50967,7 @@
         <v>6328</v>
       </c>
       <c r="B6328">
-        <v>862.9359504967848</v>
+        <v>862.9359504967847</v>
       </c>
     </row>
     <row r="6329" spans="1:2">
@@ -51319,7 +51319,7 @@
         <v>6372</v>
       </c>
       <c r="B6372">
-        <v>6.650221473783917</v>
+        <v>6.650221473783916</v>
       </c>
     </row>
     <row r="6373" spans="1:2">
@@ -51455,7 +51455,7 @@
         <v>6389</v>
       </c>
       <c r="B6389">
-        <v>498.6633029926657</v>
+        <v>498.6633029926656</v>
       </c>
     </row>
     <row r="6390" spans="1:2">
@@ -51471,7 +51471,7 @@
         <v>6391</v>
       </c>
       <c r="B6391">
-        <v>523.225586742873</v>
+        <v>523.2255867428729</v>
       </c>
     </row>
     <row r="6392" spans="1:2">
@@ -51487,7 +51487,7 @@
         <v>6393</v>
       </c>
       <c r="B6393">
-        <v>436.7373925235234</v>
+        <v>436.7373925235233</v>
       </c>
     </row>
     <row r="6394" spans="1:2">
@@ -51495,7 +51495,7 @@
         <v>6394</v>
       </c>
       <c r="B6394">
-        <v>470.540206122723</v>
+        <v>470.5402061227229</v>
       </c>
     </row>
     <row r="6395" spans="1:2">
@@ -51535,7 +51535,7 @@
         <v>6399</v>
       </c>
       <c r="B6399">
-        <v>543.128040978365</v>
+        <v>543.1280409783649</v>
       </c>
     </row>
     <row r="6400" spans="1:2">
@@ -51703,7 +51703,7 @@
         <v>6420</v>
       </c>
       <c r="B6420">
-        <v>564.1734722646362</v>
+        <v>564.1734722646361</v>
       </c>
     </row>
     <row r="6421" spans="1:2">
@@ -51727,7 +51727,7 @@
         <v>6423</v>
       </c>
       <c r="B6423">
-        <v>802.5633165325477</v>
+        <v>802.5633165325476</v>
       </c>
     </row>
     <row r="6424" spans="1:2">
@@ -51839,7 +51839,7 @@
         <v>6437</v>
       </c>
       <c r="B6437">
-        <v>538.0813576926166</v>
+        <v>538.0813576926165</v>
       </c>
     </row>
     <row r="6438" spans="1:2">
@@ -51887,7 +51887,7 @@
         <v>6443</v>
       </c>
       <c r="B6443">
-        <v>882.9702866996744</v>
+        <v>882.9702866996743</v>
       </c>
     </row>
     <row r="6444" spans="1:2">
@@ -52031,7 +52031,7 @@
         <v>6461</v>
       </c>
       <c r="B6461">
-        <v>467.712070599641</v>
+        <v>467.7120705996409</v>
       </c>
     </row>
     <row r="6462" spans="1:2">
@@ -52079,7 +52079,7 @@
         <v>6467</v>
       </c>
       <c r="B6467">
-        <v>731.519966050651</v>
+        <v>731.5199660506509</v>
       </c>
     </row>
     <row r="6468" spans="1:2">
@@ -52223,7 +52223,7 @@
         <v>6485</v>
       </c>
       <c r="B6485">
-        <v>719.6564504056397</v>
+        <v>719.6564504056396</v>
       </c>
     </row>
     <row r="6486" spans="1:2">
@@ -52239,7 +52239,7 @@
         <v>6487</v>
       </c>
       <c r="B6487">
-        <v>800.1513418843648</v>
+        <v>800.1513418843647</v>
       </c>
     </row>
     <row r="6488" spans="1:2">
@@ -52247,7 +52247,7 @@
         <v>6488</v>
       </c>
       <c r="B6488">
-        <v>797.6954065803827</v>
+        <v>797.6954065803826</v>
       </c>
     </row>
     <row r="6489" spans="1:2">
@@ -52271,7 +52271,7 @@
         <v>6491</v>
       </c>
       <c r="B6491">
-        <v>785.5358891863235</v>
+        <v>785.5358891863234</v>
       </c>
     </row>
     <row r="6492" spans="1:2">
@@ -52295,7 +52295,7 @@
         <v>6494</v>
       </c>
       <c r="B6494">
-        <v>938.6068926791442</v>
+        <v>938.606892679144</v>
       </c>
     </row>
     <row r="6495" spans="1:2">
@@ -52303,7 +52303,7 @@
         <v>6495</v>
       </c>
       <c r="B6495">
-        <v>938.3841586897616</v>
+        <v>938.3841586897614</v>
       </c>
     </row>
     <row r="6496" spans="1:2">
@@ -52311,7 +52311,7 @@
         <v>6496</v>
       </c>
       <c r="B6496">
-        <v>986.2836892485718</v>
+        <v>986.2836892485716</v>
       </c>
     </row>
     <row r="6497" spans="1:2">
@@ -52687,7 +52687,7 @@
         <v>6543</v>
       </c>
       <c r="B6543">
-        <v>13.05704744995959</v>
+        <v>13.05704744995958</v>
       </c>
     </row>
     <row r="6544" spans="1:2">
@@ -52799,7 +52799,7 @@
         <v>6557</v>
       </c>
       <c r="B6557">
-        <v>469.6316859028728</v>
+        <v>469.6316859028727</v>
       </c>
     </row>
     <row r="6558" spans="1:2">
@@ -52999,7 +52999,7 @@
         <v>6582</v>
       </c>
       <c r="B6582">
-        <v>438.0239743832467</v>
+        <v>438.0239743832466</v>
       </c>
     </row>
     <row r="6583" spans="1:2">
@@ -53095,7 +53095,7 @@
         <v>6594</v>
       </c>
       <c r="B6594">
-        <v>834.56374324398</v>
+        <v>834.5637432439798</v>
       </c>
     </row>
     <row r="6595" spans="1:2">
@@ -53199,7 +53199,7 @@
         <v>6607</v>
       </c>
       <c r="B6607">
-        <v>744.514735904895</v>
+        <v>744.5147359048949</v>
       </c>
     </row>
     <row r="6608" spans="1:2">
@@ -53287,7 +53287,7 @@
         <v>6618</v>
       </c>
       <c r="B6618">
-        <v>932.5784214138804</v>
+        <v>932.5784214138802</v>
       </c>
     </row>
     <row r="6619" spans="1:2">
@@ -53391,7 +53391,7 @@
         <v>6631</v>
       </c>
       <c r="B6631">
-        <v>686.4339174629896</v>
+        <v>686.4339174629895</v>
       </c>
     </row>
     <row r="6632" spans="1:2">
@@ -53399,7 +53399,7 @@
         <v>6632</v>
       </c>
       <c r="B6632">
-        <v>892.867295675268</v>
+        <v>892.8672956752679</v>
       </c>
     </row>
     <row r="6633" spans="1:2">
@@ -53567,7 +53567,7 @@
         <v>6653</v>
       </c>
       <c r="B6653">
-        <v>506.3212492328866</v>
+        <v>506.3212492328865</v>
       </c>
     </row>
     <row r="6654" spans="1:2">
@@ -53591,7 +53591,7 @@
         <v>6656</v>
       </c>
       <c r="B6656">
-        <v>779.67153770271</v>
+        <v>779.6715377027099</v>
       </c>
     </row>
     <row r="6657" spans="1:2">
@@ -53655,7 +53655,7 @@
         <v>6664</v>
       </c>
       <c r="B6664">
-        <v>1327.566261896487</v>
+        <v>1327.566261896486</v>
       </c>
     </row>
     <row r="6665" spans="1:2">
@@ -54351,7 +54351,7 @@
         <v>6751</v>
       </c>
       <c r="B6751">
-        <v>97.78139362312589</v>
+        <v>97.78139362312588</v>
       </c>
     </row>
     <row r="6752" spans="1:2">
@@ -54407,7 +54407,7 @@
         <v>6758</v>
       </c>
       <c r="B6758">
-        <v>713.2118182654767</v>
+        <v>713.2118182654766</v>
       </c>
     </row>
     <row r="6759" spans="1:2">
@@ -54559,7 +54559,7 @@
         <v>6777</v>
       </c>
       <c r="B6777">
-        <v>529.1807902484716</v>
+        <v>529.1807902484715</v>
       </c>
     </row>
     <row r="6778" spans="1:2">
@@ -54591,7 +54591,7 @@
         <v>6781</v>
       </c>
       <c r="B6781">
-        <v>881.2440982819591</v>
+        <v>881.2440982819589</v>
       </c>
     </row>
     <row r="6782" spans="1:2">
@@ -54631,7 +54631,7 @@
         <v>6786</v>
       </c>
       <c r="B6786">
-        <v>576.4971094403458</v>
+        <v>576.4971094403456</v>
       </c>
     </row>
     <row r="6787" spans="1:2">
@@ -54719,7 +54719,7 @@
         <v>6797</v>
       </c>
       <c r="B6797">
-        <v>435.5826926311977</v>
+        <v>435.5826926311976</v>
       </c>
     </row>
     <row r="6798" spans="1:2">
@@ -54975,7 +54975,7 @@
         <v>6829</v>
       </c>
       <c r="B6829">
-        <v>1244.89250447373</v>
+        <v>1244.892504473729</v>
       </c>
     </row>
     <row r="6830" spans="1:2">
@@ -55015,7 +55015,7 @@
         <v>6834</v>
       </c>
       <c r="B6834">
-        <v>821.1088518590376</v>
+        <v>821.1088518590375</v>
       </c>
     </row>
     <row r="6835" spans="1:2">
@@ -55543,7 +55543,7 @@
         <v>6900</v>
       </c>
       <c r="B6900">
-        <v>844.3728309079752</v>
+        <v>844.3728309079751</v>
       </c>
     </row>
     <row r="6901" spans="1:2">
@@ -55567,7 +55567,7 @@
         <v>6903</v>
       </c>
       <c r="B6903">
-        <v>1008.817921411243</v>
+        <v>1008.817921411242</v>
       </c>
     </row>
     <row r="6904" spans="1:2">
@@ -55679,7 +55679,7 @@
         <v>6917</v>
       </c>
       <c r="B6917">
-        <v>459.3829916808856</v>
+        <v>459.3829916808855</v>
       </c>
     </row>
     <row r="6918" spans="1:2">
@@ -55687,7 +55687,7 @@
         <v>6918</v>
       </c>
       <c r="B6918">
-        <v>453.3779660987146</v>
+        <v>453.3779660987145</v>
       </c>
     </row>
     <row r="6919" spans="1:2">
@@ -55711,7 +55711,7 @@
         <v>6921</v>
       </c>
       <c r="B6921">
-        <v>734.6763411370337</v>
+        <v>734.6763411370335</v>
       </c>
     </row>
     <row r="6922" spans="1:2">
@@ -55727,7 +55727,7 @@
         <v>6923</v>
       </c>
       <c r="B6923">
-        <v>817.2256605967748</v>
+        <v>817.2256605967747</v>
       </c>
     </row>
     <row r="6924" spans="1:2">
@@ -55927,7 +55927,7 @@
         <v>6948</v>
       </c>
       <c r="B6948">
-        <v>613.843151896961</v>
+        <v>613.8431518969609</v>
       </c>
     </row>
     <row r="6949" spans="1:2">
@@ -55959,7 +55959,7 @@
         <v>6952</v>
       </c>
       <c r="B6952">
-        <v>615.0476738658591</v>
+        <v>615.047673865859</v>
       </c>
     </row>
     <row r="6953" spans="1:2">
@@ -56095,7 +56095,7 @@
         <v>6969</v>
       </c>
       <c r="B6969">
-        <v>371.3561745085639</v>
+        <v>371.3561745085638</v>
       </c>
     </row>
     <row r="6970" spans="1:2">
@@ -56103,7 +56103,7 @@
         <v>6970</v>
       </c>
       <c r="B6970">
-        <v>530.4615106874217</v>
+        <v>530.4615106874215</v>
       </c>
     </row>
     <row r="6971" spans="1:2">
@@ -56143,7 +56143,7 @@
         <v>6975</v>
       </c>
       <c r="B6975">
-        <v>714.8647389235267</v>
+        <v>714.8647389235266</v>
       </c>
     </row>
     <row r="6976" spans="1:2">
@@ -56159,7 +56159,7 @@
         <v>6977</v>
       </c>
       <c r="B6977">
-        <v>559.73930744969</v>
+        <v>559.7393074496899</v>
       </c>
     </row>
     <row r="6978" spans="1:2">
@@ -56263,7 +56263,7 @@
         <v>6990</v>
       </c>
       <c r="B6990">
-        <v>146.1433902809438</v>
+        <v>146.1433902809437</v>
       </c>
     </row>
     <row r="6991" spans="1:2">
@@ -56863,7 +56863,7 @@
         <v>7065</v>
       </c>
       <c r="B7065">
-        <v>929.677018131133</v>
+        <v>929.6770181311329</v>
       </c>
     </row>
     <row r="7066" spans="1:2">
@@ -56919,7 +56919,7 @@
         <v>7072</v>
       </c>
       <c r="B7072">
-        <v>1283.373174387233</v>
+        <v>1283.373174387232</v>
       </c>
     </row>
     <row r="7073" spans="1:2">
@@ -57215,7 +57215,7 @@
         <v>7109</v>
       </c>
       <c r="B7109">
-        <v>883.6531422197553</v>
+        <v>883.6531422197552</v>
       </c>
     </row>
     <row r="7110" spans="1:2">
@@ -57631,7 +57631,7 @@
         <v>7161</v>
       </c>
       <c r="B7161">
-        <v>473.5764220832545</v>
+        <v>473.5764220832544</v>
       </c>
     </row>
     <row r="7162" spans="1:2">
@@ -57663,7 +57663,7 @@
         <v>7165</v>
       </c>
       <c r="B7165">
-        <v>617.163646764994</v>
+        <v>617.1636467649939</v>
       </c>
     </row>
     <row r="7166" spans="1:2">
@@ -58215,7 +58215,7 @@
         <v>7234</v>
       </c>
       <c r="B7234">
-        <v>450.2215910123319</v>
+        <v>450.2215910123318</v>
       </c>
     </row>
     <row r="7235" spans="1:2">
@@ -58239,7 +58239,7 @@
         <v>7237</v>
       </c>
       <c r="B7237">
-        <v>555.2729048204911</v>
+        <v>555.272904820491</v>
       </c>
     </row>
     <row r="7238" spans="1:2">
@@ -58271,7 +58271,7 @@
         <v>7241</v>
       </c>
       <c r="B7241">
-        <v>431.637956450816</v>
+        <v>431.6379564508159</v>
       </c>
     </row>
     <row r="7242" spans="1:2">
@@ -58423,7 +58423,7 @@
         <v>7260</v>
       </c>
       <c r="B7260">
-        <v>664.3920446452698</v>
+        <v>664.3920446452697</v>
       </c>
     </row>
     <row r="7261" spans="1:2">
@@ -58591,7 +58591,7 @@
         <v>7281</v>
       </c>
       <c r="B7281">
-        <v>333.5646640731834</v>
+        <v>333.5646640731833</v>
       </c>
     </row>
     <row r="7282" spans="1:2">
@@ -58607,7 +58607,7 @@
         <v>7283</v>
       </c>
       <c r="B7283">
-        <v>435.3159979860159</v>
+        <v>435.3159979860158</v>
       </c>
     </row>
     <row r="7284" spans="1:2">
@@ -59559,7 +59559,7 @@
         <v>7402</v>
       </c>
       <c r="B7402">
-        <v>400.097651270082</v>
+        <v>400.0976512700819</v>
       </c>
     </row>
     <row r="7403" spans="1:2">
@@ -59759,7 +59759,7 @@
         <v>7427</v>
       </c>
       <c r="B7427">
-        <v>429.6509348086921</v>
+        <v>429.650934808692</v>
       </c>
     </row>
     <row r="7428" spans="1:2">
@@ -59815,7 +59815,7 @@
         <v>7434</v>
       </c>
       <c r="B7434">
-        <v>270.8879056029908</v>
+        <v>270.8879056029907</v>
       </c>
     </row>
     <row r="7435" spans="1:2">
@@ -59943,7 +59943,7 @@
         <v>7450</v>
       </c>
       <c r="B7450">
-        <v>320.9508865691991</v>
+        <v>320.950886569199</v>
       </c>
     </row>
     <row r="7451" spans="1:2">
@@ -59951,7 +59951,7 @@
         <v>7451</v>
       </c>
       <c r="B7451">
-        <v>382.8181828306091</v>
+        <v>382.818182830609</v>
       </c>
     </row>
     <row r="7452" spans="1:2">
@@ -60351,7 +60351,7 @@
         <v>7501</v>
       </c>
       <c r="B7501">
-        <v>796.5934594750161</v>
+        <v>796.5934594750159</v>
       </c>
     </row>
     <row r="7502" spans="1:2">
@@ -60359,7 +60359,7 @@
         <v>7502</v>
       </c>
       <c r="B7502">
-        <v>883.8641533675915</v>
+        <v>883.8641533675914</v>
       </c>
     </row>
     <row r="7503" spans="1:2">
@@ -60367,7 +60367,7 @@
         <v>7503</v>
       </c>
       <c r="B7503">
-        <v>877.2378171834584</v>
+        <v>877.2378171834583</v>
       </c>
     </row>
     <row r="7504" spans="1:2">
@@ -61071,7 +61071,7 @@
         <v>7591</v>
       </c>
       <c r="B7591">
-        <v>52.52917375654355</v>
+        <v>52.52917375654354</v>
       </c>
     </row>
     <row r="7592" spans="1:2">
@@ -61103,7 +61103,7 @@
         <v>7595</v>
       </c>
       <c r="B7595">
-        <v>352.7959856301409</v>
+        <v>352.7959856301408</v>
       </c>
     </row>
     <row r="7596" spans="1:2">
@@ -61119,7 +61119,7 @@
         <v>7597</v>
       </c>
       <c r="B7597">
-        <v>416.1286370848576</v>
+        <v>416.1286370848575</v>
       </c>
     </row>
     <row r="7598" spans="1:2">
@@ -61303,7 +61303,7 @@
         <v>7620</v>
       </c>
       <c r="B7620">
-        <v>281.6251492464265</v>
+        <v>281.6251492464264</v>
       </c>
     </row>
     <row r="7621" spans="1:2">
@@ -61479,7 +61479,7 @@
         <v>7642</v>
       </c>
       <c r="B7642">
-        <v>214.9054757979006</v>
+        <v>214.9054757979005</v>
       </c>
     </row>
     <row r="7643" spans="1:2">
@@ -61663,7 +61663,7 @@
         <v>7665</v>
       </c>
       <c r="B7665">
-        <v>169.9343110573945</v>
+        <v>169.9343110573944</v>
       </c>
     </row>
     <row r="7666" spans="1:2">
@@ -61703,7 +61703,7 @@
         <v>7670</v>
       </c>
       <c r="B7670">
-        <v>322.3195283197476</v>
+        <v>322.3195283197475</v>
       </c>
     </row>
     <row r="7671" spans="1:2">
@@ -61727,7 +61727,7 @@
         <v>7673</v>
       </c>
       <c r="B7673">
-        <v>300.3655768136262</v>
+        <v>300.3655768136261</v>
       </c>
     </row>
     <row r="7674" spans="1:2">
@@ -62623,7 +62623,7 @@
         <v>7785</v>
       </c>
       <c r="B7785">
-        <v>53.20646092688992</v>
+        <v>53.20646092688991</v>
       </c>
     </row>
     <row r="7786" spans="1:2">
@@ -62631,7 +62631,7 @@
         <v>7786</v>
       </c>
       <c r="B7786">
-        <v>82.53437283676941</v>
+        <v>82.53437283676939</v>
       </c>
     </row>
     <row r="7787" spans="1:2">
@@ -62695,7 +62695,7 @@
         <v>7794</v>
       </c>
       <c r="B7794">
-        <v>25.12322171820517</v>
+        <v>25.12322171820516</v>
       </c>
     </row>
     <row r="7795" spans="1:2">
@@ -63015,7 +63015,7 @@
         <v>7834</v>
       </c>
       <c r="B7834">
-        <v>24.84843831235629</v>
+        <v>24.84843831235628</v>
       </c>
     </row>
     <row r="7835" spans="1:2">
@@ -63623,7 +63623,7 @@
         <v>7910</v>
       </c>
       <c r="B7910">
-        <v>357.7899161289302</v>
+        <v>357.7899161289301</v>
       </c>
     </row>
     <row r="7911" spans="1:2">
@@ -63631,7 +63631,7 @@
         <v>7911</v>
       </c>
       <c r="B7911">
-        <v>354.826967928064</v>
+        <v>354.8269679280639</v>
       </c>
     </row>
     <row r="7912" spans="1:2">
@@ -63975,7 +63975,7 @@
         <v>7954</v>
       </c>
       <c r="B7954">
-        <v>289.5187246017312</v>
+        <v>289.5187246017311</v>
       </c>
     </row>
     <row r="7955" spans="1:2">
@@ -63999,7 +63999,7 @@
         <v>7957</v>
       </c>
       <c r="B7957">
-        <v>461.1472793336269</v>
+        <v>461.1472793336268</v>
       </c>
     </row>
     <row r="7958" spans="1:2">
@@ -64135,7 +64135,7 @@
         <v>7974</v>
       </c>
       <c r="B7974">
-        <v>21.83124266223388</v>
+        <v>21.83124266223387</v>
       </c>
     </row>
     <row r="7975" spans="1:2">
@@ -64167,7 +64167,7 @@
         <v>7978</v>
       </c>
       <c r="B7978">
-        <v>219.5743905148145</v>
+        <v>219.5743905148144</v>
       </c>
     </row>
     <row r="7979" spans="1:2">
@@ -64175,7 +64175,7 @@
         <v>7979</v>
       </c>
       <c r="B7979">
-        <v>291.3700543529549</v>
+        <v>291.3700543529548</v>
       </c>
     </row>
     <row r="7980" spans="1:2">
@@ -65007,7 +65007,7 @@
         <v>8083</v>
       </c>
       <c r="B8083">
-        <v>491.063970960177</v>
+        <v>491.0639709601769</v>
       </c>
     </row>
     <row r="8084" spans="1:2">
@@ -65167,7 +65167,7 @@
         <v>8103</v>
       </c>
       <c r="B8103">
-        <v>959.8017901951326</v>
+        <v>959.8017901951324</v>
       </c>
     </row>
     <row r="8104" spans="1:2">
@@ -65175,7 +65175,7 @@
         <v>8104</v>
       </c>
       <c r="B8104">
-        <v>924.1702133146864</v>
+        <v>924.1702133146862</v>
       </c>
     </row>
     <row r="8105" spans="1:2">
@@ -65199,7 +65199,7 @@
         <v>8107</v>
       </c>
       <c r="B8107">
-        <v>648.613099923743</v>
+        <v>648.6130999237429</v>
       </c>
     </row>
     <row r="8108" spans="1:2">
@@ -65287,7 +65287,7 @@
         <v>8118</v>
       </c>
       <c r="B8118">
-        <v>569.1146499764665</v>
+        <v>569.1146499764664</v>
       </c>
     </row>
     <row r="8119" spans="1:2">
@@ -65359,7 +65359,7 @@
         <v>8127</v>
       </c>
       <c r="B8127">
-        <v>885.9596112940201</v>
+        <v>885.95961129402</v>
       </c>
     </row>
     <row r="8128" spans="1:2">
@@ -65575,7 +65575,7 @@
         <v>8154</v>
       </c>
       <c r="B8154">
-        <v>686.5687301407738</v>
+        <v>686.5687301407737</v>
       </c>
     </row>
     <row r="8155" spans="1:2">
@@ -65671,7 +65671,7 @@
         <v>8166</v>
       </c>
       <c r="B8166">
-        <v>672.844213400263</v>
+        <v>672.8442134002629</v>
       </c>
     </row>
     <row r="8167" spans="1:2">
@@ -65695,7 +65695,7 @@
         <v>8169</v>
       </c>
       <c r="B8169">
-        <v>849.61294107924</v>
+        <v>849.6129410792399</v>
       </c>
     </row>
     <row r="8170" spans="1:2">
@@ -65711,7 +65711,7 @@
         <v>8171</v>
       </c>
       <c r="B8171">
-        <v>994.1702308989486</v>
+        <v>994.1702308989484</v>
       </c>
     </row>
     <row r="8172" spans="1:2">
@@ -65727,7 +65727,7 @@
         <v>8173</v>
       </c>
       <c r="B8173">
-        <v>902.7789582027948</v>
+        <v>902.7789582027946</v>
       </c>
     </row>
     <row r="8174" spans="1:2">
@@ -65767,7 +65767,7 @@
         <v>8178</v>
       </c>
       <c r="B8178">
-        <v>802.1031950018494</v>
+        <v>802.1031950018493</v>
       </c>
     </row>
     <row r="8179" spans="1:2">
@@ -66463,7 +66463,7 @@
         <v>8265</v>
       </c>
       <c r="B8265">
-        <v>237.7743950867227</v>
+        <v>237.7743950867226</v>
       </c>
     </row>
     <row r="8266" spans="1:2">
@@ -66495,7 +66495,7 @@
         <v>8269</v>
       </c>
       <c r="B8269">
-        <v>415.7124762099585</v>
+        <v>415.7124762099584</v>
       </c>
     </row>
     <row r="8270" spans="1:2">
@@ -66511,7 +66511,7 @@
         <v>8271</v>
       </c>
       <c r="B8271">
-        <v>399.2272302852578</v>
+        <v>399.2272302852577</v>
       </c>
     </row>
     <row r="8272" spans="1:2">
@@ -66639,7 +66639,7 @@
         <v>8287</v>
       </c>
       <c r="B8287">
-        <v>23.43777017486377</v>
+        <v>23.43777017486376</v>
       </c>
     </row>
     <row r="8288" spans="1:2">
@@ -66687,7 +66687,7 @@
         <v>8293</v>
       </c>
       <c r="B8293">
-        <v>251.5827301442907</v>
+        <v>251.5827301442906</v>
       </c>
     </row>
     <row r="8294" spans="1:2">
@@ -66903,7 +66903,7 @@
         <v>8320</v>
       </c>
       <c r="B8320">
-        <v>219.6039906897193</v>
+        <v>219.6039906897192</v>
       </c>
     </row>
     <row r="8321" spans="1:2">
@@ -67071,7 +67071,7 @@
         <v>8341</v>
       </c>
       <c r="B8341">
-        <v>345.6362601556442</v>
+        <v>345.6362601556441</v>
       </c>
     </row>
     <row r="8342" spans="1:2">
@@ -67095,7 +67095,7 @@
         <v>8344</v>
       </c>
       <c r="B8344">
-        <v>254.4044181045221</v>
+        <v>254.404418104522</v>
       </c>
     </row>
     <row r="8345" spans="1:2">
@@ -67663,7 +67663,7 @@
         <v>8415</v>
       </c>
       <c r="B8415">
-        <v>247.2016111873422</v>
+        <v>247.2016111873421</v>
       </c>
     </row>
     <row r="8416" spans="1:2">
@@ -67671,7 +67671,7 @@
         <v>8416</v>
       </c>
       <c r="B8416">
-        <v>231.1990532633168</v>
+        <v>231.1990532633167</v>
       </c>
     </row>
     <row r="8417" spans="1:2">
@@ -67799,7 +67799,7 @@
         <v>8432</v>
       </c>
       <c r="B8432">
-        <v>76.17736893716616</v>
+        <v>76.17736893716615</v>
       </c>
     </row>
     <row r="8433" spans="1:2">
@@ -67863,7 +67863,7 @@
         <v>8440</v>
       </c>
       <c r="B8440">
-        <v>229.8986970647764</v>
+        <v>229.8986970647763</v>
       </c>
     </row>
     <row r="8441" spans="1:2">
@@ -68063,7 +68063,7 @@
         <v>8465</v>
       </c>
       <c r="B8465">
-        <v>302.3819055596163</v>
+        <v>302.3819055596162</v>
       </c>
     </row>
     <row r="8466" spans="1:2">
@@ -68183,7 +68183,7 @@
         <v>8480</v>
       </c>
       <c r="B8480">
-        <v>236.3339509317022</v>
+        <v>236.3339509317021</v>
       </c>
     </row>
     <row r="8481" spans="1:2">
@@ -68199,7 +68199,7 @@
         <v>8482</v>
       </c>
       <c r="B8482">
-        <v>336.0059458252324</v>
+        <v>336.0059458252323</v>
       </c>
     </row>
     <row r="8483" spans="1:2">
@@ -68399,7 +68399,7 @@
         <v>8507</v>
       </c>
       <c r="B8507">
-        <v>287.968085736174</v>
+        <v>287.9680857361739</v>
       </c>
     </row>
     <row r="8508" spans="1:2">
@@ -68407,7 +68407,7 @@
         <v>8508</v>
       </c>
       <c r="B8508">
-        <v>284.2923887692834</v>
+        <v>284.2923887692833</v>
       </c>
     </row>
     <row r="8509" spans="1:2">
@@ -68935,7 +68935,7 @@
         <v>8574</v>
       </c>
       <c r="B8574">
-        <v>19.88806444749369</v>
+        <v>19.88806444749368</v>
       </c>
     </row>
     <row r="8575" spans="1:2">
